--- a/similarities/split_global/harmonic_similarity_timestamps_9.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,762 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:01:40.240000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:53.540000', '0:01:02.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:05.860000', '0:00:23.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=53.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_88</t>
+          <t>isophonics_266</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj6', 'A:min7', 'D:maj6']]</t>
+          <t>['F', 'G', 'A', 'A/b7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:maj6', 'G:maj6', 'A:maj6']]</t>
+          <t>['Ab', 'Bb', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.392000', '0:00:09.683000')]</t>
+          <t>('0:00:43.301587', '0:00:47.539229')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.229000', '0:00:06.870000')]</t>
+          <t>('0:00:49.355000', '0:00:55.527000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-88#t=2.392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=43.301587</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=3.229']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=49.355</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'E:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'F:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:11.679925', '0:01:16.022057')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.860000', '0:00:15.840000')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=71.679925']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=8.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:17.780000')]</t>
+          <t>('0:02:03.220000', '0:02:06.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:32.032000', '0:00:39.805000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:08.350000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=32.032</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:09.640000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.220000', '0:00:26.460000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:03.044470', '0:00:14.983242')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:42.080000', '0:00:57.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:00:18.013446', '0:00:21.856349')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+          <t>('0:00:11.320000', '0:00:13.400000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>['F:min', 'G:hdim7', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/b7']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
+          <t>('0:00:45.730000', '0:01:02.370000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:38.588000')]</t>
+          <t>('0:01:37.720000', '0:01:54.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=45.73</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=97.72</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:12.500000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
